--- a/data/trans_camb/P15_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,32</t>
+          <t>-1,08; 2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,64</t>
+          <t>-1,64; 1,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,91</t>
+          <t>-0,67; 4,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,17</t>
+          <t>-0,33; 1,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,25</t>
+          <t>-0,9; 0,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,93</t>
+          <t>-0,08; 3,24</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>111,78%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>164,59%</t>
+          <t>222,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>207,6%</t>
+          <t>210,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>221,91%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>356,79%</t>
+          <t>382,55%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,48</t>
+          <t>-0,54; 1,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,81</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,69</t>
+          <t>-0,27; 2,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,45</t>
+          <t>-0,15; 1,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,96</t>
+          <t>-0,44; 0,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,83</t>
+          <t>-0,04; 1,54</t>
         </is>
       </c>
     </row>
@@ -1391,42 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>-8,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>217,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>206,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>214,98%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>136,14%</t>
+          <t>447,01%</t>
         </is>
       </c>
     </row>
@@ -1474,12 +1474,19 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
